--- a/GameDocs/game_map.xlsx
+++ b/GameDocs/game_map.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Library/CloudStorage/Dropbox/GitHub/2024/HorseSim/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Library/CloudStorage/Dropbox/GitHub/2024/HorseSim/GameDocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E031EEC-3301-DA46-BC06-F3167E5990C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4F565E-5CB6-1A4E-AC7C-A980DC9E78A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{50E3375C-3566-2740-A63D-0A9A97A27037}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>Beach</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Tea cart</t>
   </si>
   <si>
-    <t>Monastery</t>
-  </si>
-  <si>
     <t>Mountain path</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Glassrock Cliffs</t>
   </si>
   <si>
-    <t>Temple of Fire</t>
-  </si>
-  <si>
     <t>Town Hall</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>Devil's Tail</t>
   </si>
   <si>
-    <t>Camp grounds</t>
-  </si>
-  <si>
     <t>Slime City Downtown</t>
   </si>
   <si>
@@ -137,6 +128,21 @@
   </si>
   <si>
     <t>Confectioner</t>
+  </si>
+  <si>
+    <t>Dream Temple</t>
+  </si>
+  <si>
+    <t>Hallowed Ground</t>
+  </si>
+  <si>
+    <t>Hidden Path</t>
+  </si>
+  <si>
+    <t>Starting Tile</t>
+  </si>
+  <si>
+    <t>Locked - Quest needed to unlock area</t>
   </si>
 </sst>
 </file>
@@ -159,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +175,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -208,9 +220,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -226,6 +235,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,47 +554,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697C68A8-C91A-644B-9BF9-8637FF4BB6DC}">
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>3</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>4</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>5</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>6</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>7</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6">
+    <row r="3" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -588,7 +602,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -596,24 +610,27 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="9">
+        <v>9</v>
+      </c>
+      <c r="L3" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6">
+      <c r="M3" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -621,67 +638,70 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="9">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6">
+      <c r="M4" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>7</v>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="9">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6">
+    <row r="7" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="3"/>
@@ -690,29 +710,29 @@
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="9">
+        <v>8</v>
+      </c>
+      <c r="L7" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
+    <row r="8" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="3"/>
@@ -720,72 +740,72 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="9">
+        <v>17</v>
+      </c>
+      <c r="L8" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6">
+    <row r="9" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
         <v>6</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="2" t="s">
-        <v>20</v>
+      <c r="H9" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="9">
+      <c r="L9" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6">
+    <row r="10" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
         <v>7</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="9">
+        <v>18</v>
+      </c>
+      <c r="L10" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
+    <row r="11" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
         <v>8</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>0</v>
@@ -796,120 +816,120 @@
       <c r="H11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="9">
+        <v>11</v>
+      </c>
+      <c r="L11" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6">
+    <row r="12" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6">
+    <row r="13" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="9">
+        <v>11</v>
+      </c>
+      <c r="L13" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="7">
+    <row r="14" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="6">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>2</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>3</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>4</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>5</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>6</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>7</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:12" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/GameDocs/game_map.xlsx
+++ b/GameDocs/game_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/Library/CloudStorage/Dropbox/GitHub/2024/HorseSim/GameDocs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4F565E-5CB6-1A4E-AC7C-A980DC9E78A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBA454B-D3DA-2246-9903-BF43F005CA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{50E3375C-3566-2740-A63D-0A9A97A27037}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>Beach</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Locked - Quest needed to unlock area</t>
+  </si>
+  <si>
+    <t>Only available during certain times</t>
+  </si>
+  <si>
+    <t>Therapist</t>
   </si>
 </sst>
 </file>
@@ -165,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +187,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -240,6 +252,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +573,7 @@
   <dimension ref="B1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G10" sqref="F9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,11 +613,11 @@
       <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="3"/>
@@ -670,6 +686,9 @@
       <c r="L5" s="8">
         <v>2</v>
       </c>
+      <c r="M5" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="2:13" ht="70" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
@@ -749,7 +768,7 @@
         <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>17</v>
@@ -789,9 +808,14 @@
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="8">
         <v>7</v>
       </c>
@@ -836,7 +860,7 @@
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -848,7 +872,7 @@
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="14" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
